--- a/columnar_extracted_text.xlsx
+++ b/columnar_extracted_text.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,350 +443,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>This</t>
+          <t>LatOS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>is a</t>
+          <t>CENTRE OF EXCELLENCE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lot</t>
+          <t>GGE : I23ZY</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ocr</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>of 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>point</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>see</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>file</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>if it</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>format:</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>works</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>The</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>quick</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>types</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>The</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>jumped</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>quick</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>over</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>over</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>jumped</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>The</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>jumped</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>over</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>quick</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>The</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>jumped</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>quick</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>over</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>Kaltddc</t>
         </is>
       </c>
     </row>

--- a/columnar_extracted_text.xlsx
+++ b/columnar_extracted_text.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,34 +439,227 @@
           <t>Column 1</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Column 2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Column 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LatOS</t>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CENTRE OF EXCELLENCE</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GGE : I23ZY</t>
+          <t>juice</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>200</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kaltddc</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>biscuit</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>jam</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>eggs</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>rice</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>jelly</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>cold drink</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>chocolate</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/columnar_extracted_text.xlsx
+++ b/columnar_extracted_text.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,213 +453,149 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>Product List</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>Order List</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>Result</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>juice</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
+          <t>Carrot</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carrot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>biscuit</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t>Blueberry</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strawberry</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>milk</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
+          <t>Mango</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mango</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>Pineapple</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pineapple</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jam</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t>Watermelon</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Watermelon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>eggs</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>Pear</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pear</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Lemon</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mango</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>rice</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>jelly</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>cold drink</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>chocolate</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
